--- a/Maquinaria/horometro.xlsx
+++ b/Maquinaria/horometro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maquinaria\Maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E97ABFB-EE7E-4AE2-9473-EF8E6A3F8650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704AF3A9-82E3-4BD4-BC85-FD8203E97109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF203436-6C31-43EF-81AB-DA27B78E1A5E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>idTxt_Ppu</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>TLPG-22</t>
+  </si>
+  <si>
+    <t>TKLJ-53</t>
   </si>
 </sst>
 </file>
@@ -423,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD6C17-A604-433F-9A43-16B00E355EB8}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -459,7 +462,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -467,13 +470,13 @@
         <v>17800363</v>
       </c>
       <c r="C3">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D3" s="2">
-        <v>45963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -481,13 +484,13 @@
         <v>17800363</v>
       </c>
       <c r="C4">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="D4" s="2">
-        <v>45964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -495,13 +498,13 @@
         <v>17800363</v>
       </c>
       <c r="C5">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="D5" s="2">
-        <v>45965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -509,69 +512,69 @@
         <v>17800363</v>
       </c>
       <c r="C6">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="D6" s="2">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>17800363</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12222625</v>
       </c>
       <c r="C7">
-        <v>543</v>
+        <v>402</v>
       </c>
       <c r="D7" s="2">
-        <v>45967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>17800363</v>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>12222625</v>
       </c>
       <c r="C8">
-        <v>566</v>
+        <v>409</v>
       </c>
       <c r="D8" s="2">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>12222625</v>
+      </c>
+      <c r="C9">
+        <v>440</v>
+      </c>
+      <c r="D9" s="2">
         <v>45968</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>17800363</v>
-      </c>
-      <c r="C9">
-        <v>571</v>
-      </c>
-      <c r="D9" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>12222625</v>
+      </c>
+      <c r="C10">
+        <v>449</v>
+      </c>
+      <c r="D10" s="2">
         <v>45969</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>17800363</v>
-      </c>
-      <c r="C10">
-        <v>578</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45970</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -579,248 +582,164 @@
         <v>12222625</v>
       </c>
       <c r="C11">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="D11" s="2">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>11939112</v>
+      </c>
+      <c r="C12">
+        <v>1081</v>
+      </c>
+      <c r="D12" s="2">
         <v>45962</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>12222625</v>
-      </c>
-      <c r="C12">
-        <v>402</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>12222625</v>
+        <v>11939112</v>
       </c>
       <c r="C13">
-        <v>409</v>
+        <v>1813</v>
       </c>
       <c r="D13" s="2">
         <v>45964</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>12222625</v>
+        <v>11939112</v>
       </c>
       <c r="C14">
-        <v>409</v>
+        <v>1836</v>
       </c>
       <c r="D14" s="2">
-        <v>45965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>12222625</v>
+        <v>11939112</v>
       </c>
       <c r="C15">
-        <v>409</v>
+        <v>1845</v>
       </c>
       <c r="D15" s="2">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>11939112</v>
+      </c>
+      <c r="C16">
+        <v>1852</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>15501015</v>
+      </c>
+      <c r="C17">
+        <v>1581</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>15501015</v>
+      </c>
+      <c r="C18">
+        <v>1593</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>15501015</v>
+      </c>
+      <c r="C19">
+        <v>1599</v>
+      </c>
+      <c r="D19" s="2">
         <v>45966</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>12222625</v>
-      </c>
-      <c r="C16">
-        <v>409</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>12222625</v>
-      </c>
-      <c r="C17">
-        <v>440</v>
-      </c>
-      <c r="D17" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>15501015</v>
+      </c>
+      <c r="C20">
+        <v>1620</v>
+      </c>
+      <c r="D20" s="2">
         <v>45968</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>12222625</v>
-      </c>
-      <c r="C18">
-        <v>449</v>
-      </c>
-      <c r="D18" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>15501015</v>
+      </c>
+      <c r="C21">
+        <v>1628</v>
+      </c>
+      <c r="D21" s="2">
         <v>45969</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>12222625</v>
-      </c>
-      <c r="C19">
-        <v>457</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45970</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>11939112</v>
-      </c>
-      <c r="C20">
-        <v>1081</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>11939112</v>
-      </c>
-      <c r="C21">
-        <v>1081</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>11939112</v>
+        <v>15501015</v>
       </c>
       <c r="C22">
-        <v>1813</v>
+        <v>1637</v>
       </c>
       <c r="D22" s="2">
-        <v>45964</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>11939112</v>
-      </c>
-      <c r="C23">
-        <v>1813</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>11939112</v>
-      </c>
-      <c r="C24">
-        <v>1813</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>11939112</v>
-      </c>
-      <c r="C25">
-        <v>1813</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>11939112</v>
-      </c>
-      <c r="C26">
-        <v>1836</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>11939112</v>
-      </c>
-      <c r="C27">
-        <v>1845</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>11939112</v>
-      </c>
-      <c r="C28">
-        <v>1852</v>
-      </c>
-      <c r="D28" s="2">
         <v>45970</v>
       </c>
     </row>

--- a/Maquinaria/horometro.xlsx
+++ b/Maquinaria/horometro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maquinaria\Maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704AF3A9-82E3-4BD4-BC85-FD8203E97109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAA957-2847-4203-9818-D6917E74806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF203436-6C31-43EF-81AB-DA27B78E1A5E}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
